--- a/Program/Other/URS會議審查紀錄/DbLayouts/XX-系統/TxAmlCredit.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/XX-系統/TxAmlCredit.xlsx
@@ -1,27 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SKL_SVN\Documents\DB\GenTables\XX-系統\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\XX-系統\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D74DD15A-CB1C-4BD1-B3D1-CF620A962678}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22980" windowHeight="9084"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="85">
   <si>
     <t>讀取Key條件</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -153,198 +152,206 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>ProcessDate</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProcessTlrNo</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProcessBrNo</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DataDt,CustKey</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>欄位名稱</t>
+  </si>
+  <si>
+    <t>中文名稱</t>
+  </si>
+  <si>
+    <t>形態</t>
+  </si>
+  <si>
+    <t>長度</t>
+  </si>
+  <si>
+    <t>小數</t>
+  </si>
+  <si>
+    <t>備註說明</t>
+  </si>
+  <si>
+    <t>AML定審資料</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProcessCount</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProcessNote</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVARCHAR2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>評級</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>身分證字號</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProcessMobile</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProcessAddress</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProcessName</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>processNo</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReviewType,DataDt</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>processAll</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReviewType = ,AND DataDt &gt;= ,AND DataDt &lt;= ,AND ProcessType %</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReviewType = ,AND DataDt &gt;= ,AND DataDt &lt;= ,AND ProcessType % ,AND ProcessCount =</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReviewType = ,AND DataDt &gt;= ,AND DataDt &lt;= ,AND ProcessType % ,AND ProcessCount &gt;</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>processYes</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>通知類別</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>通知次數</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>最後通知單位</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>最後通知經辦</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>最後通知日期</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>最後通知簡訊電話</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>最後通知郵寄地址</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>最後通知郵寄名稱</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>最後通知備註</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DataDt =</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>dataDtAll</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>RRSeq</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unit</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>IsStatus</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>最後通知科組別</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProcessGroupNo</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>WlfConfirmStatus</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>名單類型</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReviewType</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>1.高風險,郵寄"定期審查客戶基本資料更新表(房貸自然人)"
 2.中低風險,郵寄"放款本息攤還表暨息通知單"
 3.中低風險,簡訊通知</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>ProcessDate</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ProcessTlrNo</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ProcessBrNo</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>4</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>DataDt,CustKey</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>欄位名稱</t>
-  </si>
-  <si>
-    <t>中文名稱</t>
-  </si>
-  <si>
-    <t>形態</t>
-  </si>
-  <si>
-    <t>長度</t>
-  </si>
-  <si>
-    <t>小數</t>
-  </si>
-  <si>
-    <t>備註說明</t>
-  </si>
-  <si>
-    <t>AML定審資料</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ProcessCount</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ProcessNote</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>NVARCHAR2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>評級</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ReviewType</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>身分證字號</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ProcessMobile</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ProcessAddress</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ProcessName</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>processNo</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ReviewType,DataDt</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>processAll</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ReviewType = ,AND DataDt &gt;= ,AND DataDt &lt;= ,AND ProcessType %</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ReviewType = ,AND DataDt &gt;= ,AND DataDt &lt;= ,AND ProcessType % ,AND ProcessCount =</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ReviewType = ,AND DataDt &gt;= ,AND DataDt &lt;= ,AND ProcessType % ,AND ProcessCount &gt;</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>processYes</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>通知類別</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>通知次數</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>最後通知單位</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>最後通知經辦</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>最後通知日期</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>最後通知簡訊電話</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>最後通知郵寄地址</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>最後通知郵寄名稱</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>最後通知備註</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>DataDt =</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>dataDtAll</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>RRSeq</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Unit</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>IsStatus</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>最後通知科組別</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ProcessGroupNo</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>WlfConfirmStatus</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>名單類型</t>
+    <t>DECIMALD</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DECIMALD</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="13">
     <font>
       <sz val="12"/>
@@ -617,9 +624,9 @@
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="一般 3" xfId="3" xr:uid="{2B2B6048-ED20-43C0-B9A9-5F8025674D2D}"/>
-    <cellStyle name="一般_CopyBook" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="一般 2" xfId="1"/>
+    <cellStyle name="一般 3" xfId="3"/>
+    <cellStyle name="一般_CopyBook" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -710,23 +717,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -762,23 +752,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -954,11 +927,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="15.6"/>
@@ -981,7 +954,7 @@
         <v>19</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E1" s="5"/>
       <c r="F1" s="6"/>
@@ -1030,7 +1003,7 @@
       </c>
       <c r="B5" s="31"/>
       <c r="C5" s="12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="10"/>
@@ -1064,22 +1037,22 @@
         <v>18</v>
       </c>
       <c r="B8" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="D8" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="E8" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="F8" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="G8" s="9" t="s">
         <v>46</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1093,7 +1066,7 @@
         <v>20</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>24</v>
+        <v>84</v>
       </c>
       <c r="E9" s="15">
         <v>8</v>
@@ -1114,7 +1087,7 @@
         <v>32</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D10" s="15" t="s">
         <v>27</v>
@@ -1133,7 +1106,7 @@
         <v>3</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C11" s="16" t="s">
         <v>21</v>
@@ -1155,10 +1128,10 @@
         <v>4</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D12" s="15" t="s">
         <v>27</v>
@@ -1179,7 +1152,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C13" s="16" t="s">
         <v>22</v>
@@ -1203,7 +1176,7 @@
         <v>6</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C14" s="16" t="s">
         <v>23</v>
@@ -1227,10 +1200,10 @@
         <v>7</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D15" s="15" t="s">
         <v>27</v>
@@ -1252,7 +1225,7 @@
         <v>34</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D16" s="15" t="s">
         <v>27</v>
@@ -1262,7 +1235,7 @@
       </c>
       <c r="F16" s="15"/>
       <c r="G16" s="15" t="s">
-        <v>35</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1271,10 +1244,10 @@
         <v>9</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D17" s="15" t="s">
         <v>24</v>
@@ -1291,16 +1264,16 @@
         <v>10</v>
       </c>
       <c r="B18" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" s="15" t="s">
         <v>38</v>
-      </c>
-      <c r="C18" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="D18" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="E18" s="15" t="s">
-        <v>39</v>
       </c>
       <c r="F18" s="15"/>
       <c r="G18" s="15"/>
@@ -1311,13 +1284,13 @@
         <v>11</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E19" s="15">
         <v>1</v>
@@ -1331,10 +1304,10 @@
         <v>12</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D20" s="15" t="s">
         <v>27</v>
@@ -1351,13 +1324,13 @@
         <v>13</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>24</v>
+        <v>83</v>
       </c>
       <c r="E21" s="15">
         <v>8</v>
@@ -1371,10 +1344,10 @@
         <v>14</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D22" s="15" t="s">
         <v>27</v>
@@ -1391,13 +1364,13 @@
         <v>15</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E23" s="15">
         <v>100</v>
@@ -1411,13 +1384,13 @@
         <v>16</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E24" s="15">
         <v>20</v>
@@ -1431,13 +1404,13 @@
         <v>17</v>
       </c>
       <c r="B25" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="D25" s="15" t="s">
         <v>50</v>
-      </c>
-      <c r="C25" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="D25" s="15" t="s">
-        <v>51</v>
       </c>
       <c r="E25" s="15">
         <v>100</v>
@@ -1608,7 +1581,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
@@ -1638,43 +1611,43 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
